--- a/data/trans_camb/LAWTONB_2R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.6481142689475139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.34163900177994</v>
+        <v>7.341639001779937</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.742244990256271</v>
@@ -655,7 +655,7 @@
         <v>6.772380480929455</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>17.88661174603876</v>
+        <v>17.88661174603877</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.568244273519587</v>
@@ -664,7 +664,7 @@
         <v>4.072244776911068</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.00986644583802</v>
+        <v>13.00986644583801</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.548418798057327</v>
+        <v>-8.156699128373438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.609352709728736</v>
+        <v>-8.86151087858825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.316687445124966</v>
+        <v>-1.538660188202007</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.07842773856500994</v>
+        <v>0.9230936225209657</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.414771709042101</v>
+        <v>-3.013529607514798</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.18045160337881</v>
+        <v>9.187911835875289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.026227664472065</v>
+        <v>-1.659397400077582</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.412395028658894</v>
+        <v>-2.759437816526492</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.382385028783682</v>
+        <v>7.0969871979355</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.621953571934098</v>
+        <v>10.48746080494604</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.915400544811035</v>
+        <v>9.14606797222584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.23829323210345</v>
+        <v>15.73031803632344</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.92484024285526</v>
+        <v>19.32466680367969</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.86452950295161</v>
+        <v>15.62356134026046</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.90901623739797</v>
+        <v>24.92002936949564</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.21389650179823</v>
+        <v>12.16298833275145</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.70552432851667</v>
+        <v>10.85218548147961</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.00650562699389</v>
+        <v>18.62071398883177</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.03781964405102456</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4284092899996345</v>
+        <v>0.4284092899996343</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5687727147523532</v>
@@ -769,7 +769,7 @@
         <v>0.2376953070280462</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7593807270060564</v>
+        <v>0.7593807270060557</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.406637834502349</v>
+        <v>-0.3866651363010223</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.388549324200772</v>
+        <v>-0.418791995316014</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05670950705211245</v>
+        <v>-0.06722883493386246</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01442330418917149</v>
+        <v>0.03172681806521224</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1171592034586731</v>
+        <v>-0.1464391770316617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4492037285387256</v>
+        <v>0.3806527365392559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0643341919135952</v>
+        <v>-0.08754693027518771</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1218400065421878</v>
+        <v>-0.14417454290843</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3465025440648638</v>
+        <v>0.3196694636736064</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7515214562661131</v>
+        <v>0.8857134058245757</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7013895058782926</v>
+        <v>0.7896171983617246</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.351070178647687</v>
+        <v>1.313138175162819</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.437612663139099</v>
+        <v>1.574031688731004</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.2451717626731</v>
+        <v>1.196256163423826</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.353256546521237</v>
+        <v>2.079260278430222</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8691944817044611</v>
+        <v>0.8495818646657839</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7510853658755609</v>
+        <v>0.7798837040729668</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.433647575078767</v>
+        <v>1.383153212479328</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>4.269095069982851</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.901545015887672</v>
+        <v>8.901545015887665</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.52671091546561</v>
@@ -878,7 +878,7 @@
         <v>3.623131975252353</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.894572976832228</v>
+        <v>6.894572976832225</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.318553905480891</v>
+        <v>1.535557777109142</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.538536287115459</v>
+        <v>-4.700378725477088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.926113486435478</v>
+        <v>-3.235009789382036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.652166281316408</v>
+        <v>1.830728598529001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.03438968922046</v>
+        <v>-4.835014793205777</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7835368215699327</v>
+        <v>1.503429799686638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.967881892539427</v>
+        <v>3.976605852304612</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.014577168505882</v>
+        <v>-2.791831136423307</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.156476688846317</v>
+        <v>1.280284061829181</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.21820947375007</v>
+        <v>19.9602660237892</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.909001926733263</v>
+        <v>10.66326513791035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.11622005630273</v>
+        <v>10.99038017747422</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.93056034296567</v>
+        <v>19.42144529623179</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.92246966954582</v>
+        <v>13.2360585453043</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.25626774943563</v>
+        <v>16.16758343710853</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.90623289913333</v>
+        <v>16.85700320718339</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.454193305896592</v>
+        <v>10.00258062910375</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.98645917926653</v>
+        <v>11.78081323570975</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2074680767437572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4325943541242364</v>
+        <v>0.4325943541242361</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5982372118050168</v>
@@ -983,7 +983,7 @@
         <v>0.2059040462194264</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3918213530673262</v>
+        <v>0.3918213530673261</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.04245900032581851</v>
+        <v>0.07784179153862844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3072370641587039</v>
+        <v>-0.2515190329860069</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2053332331022427</v>
+        <v>-0.1872123251173625</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02299830850529312</v>
+        <v>0.04127764885743209</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2107827411991172</v>
+        <v>-0.1984103519697989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-3.199358793174157e-05</v>
+        <v>0.03583025182332854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1996400344525766</v>
+        <v>0.194491964438675</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1065843931969805</v>
+        <v>-0.1270734573109017</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05821765696973687</v>
+        <v>0.05809450844212211</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.991584362469626</v>
+        <v>2.019427692195439</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.06771612999968</v>
+        <v>1.163501115098028</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.206180305820267</v>
+        <v>1.176284071548103</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.192875278083669</v>
+        <v>1.230846600529573</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7664154423539342</v>
+        <v>0.8325352471738388</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.03544438789471</v>
+        <v>1.023533207064661</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.202994833495602</v>
+        <v>1.166872420280575</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6546186341502807</v>
+        <v>0.7225015870268165</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.884702842008775</v>
+        <v>0.8241067718279005</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2655766045091449</v>
+        <v>0.2830317685172286</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.68783814086373</v>
+        <v>-8.579442189604118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.29257782369615</v>
+        <v>-10.03244313630166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.837339328298266</v>
+        <v>4.883486603761305</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.813049690939355</v>
+        <v>3.575560974334278</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.244126062084092</v>
+        <v>2.625052137598651</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.294371134690531</v>
+        <v>6.167374052774362</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.058188176915417</v>
+        <v>1.810329595634706</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.201134543471152</v>
+        <v>-1.36255486100578</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.65262451987461</v>
+        <v>22.2135200552631</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.43640150127283</v>
+        <v>10.57277106393698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.624449058576659</v>
+        <v>4.443693581200182</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.79489377433144</v>
+        <v>25.11180444946311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>25.64269693714634</v>
+        <v>24.16039025631099</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.77069373349697</v>
+        <v>18.54152836733023</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.86247014972752</v>
+        <v>20.6134675363468</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.99954324711293</v>
+        <v>15.6420435286417</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.23812597741431</v>
+        <v>9.659652049160165</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>1.03578246583272</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.776967627647546</v>
+        <v>0.7769676276475462</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.085493039191524</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.008673718527476879</v>
+        <v>-0.0294364419775267</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4848135822349448</v>
+        <v>-0.5381155722585735</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6366873740429974</v>
+        <v>-0.6295807173161689</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3590017681399477</v>
+        <v>0.2279846879220572</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2346852168677302</v>
+        <v>0.1717154742543657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1077514969247755</v>
+        <v>0.12302944918386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4065284361856891</v>
+        <v>0.3831491425783103</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1285302069560265</v>
+        <v>0.07557077578486884</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08024881331741747</v>
+        <v>-0.09680979097564787</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.227735015378064</v>
+        <v>3.694529479500959</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.539245423922193</v>
+        <v>1.600197788139151</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8624747336294476</v>
+        <v>0.7759739901314724</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.9758769271229</v>
+        <v>2.511677511802075</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.635720287989749</v>
+        <v>2.46955686738024</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.128179772592663</v>
+        <v>2.014803901667189</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.237438075764076</v>
+        <v>2.213303285601696</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.68647447376312</v>
+        <v>1.654137313895431</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.139262447393615</v>
+        <v>1.033988617076972</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.019543709292271</v>
+        <v>2.430822488709631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.484081656122241</v>
+        <v>-3.378939013758543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.072037148061423</v>
+        <v>-2.655602846811515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.506397774502345</v>
+        <v>-9.424378506964493</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.753070851803306</v>
+        <v>-9.631691738258686</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.210094984889417</v>
+        <v>-3.442975754055834</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.795048118288275</v>
+        <v>-2.974778839835969</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.058590751091755</v>
+        <v>-5.176598483365587</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.198333399671817</v>
+        <v>-1.182395158416385</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.61535177202917</v>
+        <v>19.11429580219885</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.09987373065598</v>
+        <v>9.861804528840185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.042305744473419</v>
+        <v>9.047391454287567</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.01837158270186</v>
+        <v>6.430183574255641</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.770560039364199</v>
+        <v>5.635286981673186</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.87447056895054</v>
+        <v>11.12544850549424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.752392883548822</v>
+        <v>8.562734676564453</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.697668343357687</v>
+        <v>5.659854770696833</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.69206708597039</v>
+        <v>8.884516425324907</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1713641156259549</v>
+        <v>0.1424358180239856</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2790452159504262</v>
+        <v>-0.2689390810944953</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.164423498605413</v>
+        <v>-0.2006784149455465</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3733089164478548</v>
+        <v>-0.3705081069925016</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.393001594168174</v>
+        <v>-0.3990838940220743</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1215110515281518</v>
+        <v>-0.1368116588475672</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.144210504939417</v>
+        <v>-0.1568094096294088</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.266306020357035</v>
+        <v>-0.2797996671600079</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06139179426068646</v>
+        <v>-0.05877999334194325</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.65022553193005</v>
+        <v>2.700884330597379</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.474943054148705</v>
+        <v>1.508351752002358</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.398896825681197</v>
+        <v>1.43601774625565</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3733963671133754</v>
+        <v>0.3937508803388156</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.411838084626785</v>
+        <v>0.3501807630568114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6673843811345589</v>
+        <v>0.7124407146392813</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6425057853349851</v>
+        <v>0.60272320021864</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.417410043198697</v>
+        <v>0.4041031146614645</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6666006347597511</v>
+        <v>0.6612691274303913</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.198212475854908</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.119495704087222</v>
+        <v>3.119495704087225</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.579388386445096</v>
@@ -1511,7 +1511,7 @@
         <v>4.97559861583709</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.839144031445318</v>
+        <v>9.839144031445324</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.710542573483931</v>
@@ -1520,7 +1520,7 @@
         <v>3.742997347620605</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.783387677473551</v>
+        <v>6.783387677473546</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.269678676857578</v>
+        <v>3.253903102736424</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.455752200611404</v>
+        <v>-1.549431662688486</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7319676274363424</v>
+        <v>-0.5962657860921808</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.822864432517094</v>
+        <v>3.025810631489767</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8487689946312543</v>
+        <v>0.1678594216230788</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.954303907286015</v>
+        <v>6.092705086890248</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.37881815227038</v>
+        <v>4.375523438114011</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7534348163112708</v>
+        <v>0.6518184049451039</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.063670927537958</v>
+        <v>3.984299124841599</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.68168207364756</v>
+        <v>12.50360381788814</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.924891877809184</v>
+        <v>6.301084606281526</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.594454459049803</v>
+        <v>6.538401941744231</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.01414398918661</v>
+        <v>12.18031134595848</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.759360042541935</v>
+        <v>9.450557711491102</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.19661271789989</v>
+        <v>13.44921351203563</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.08838024629557</v>
+        <v>10.74660718321247</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.924027314109709</v>
+        <v>6.708595072589459</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.47428636130406</v>
+        <v>9.632644619860791</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1708386757543967</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.242438126869664</v>
+        <v>0.2424381268696642</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4076493792774134</v>
@@ -1616,7 +1616,7 @@
         <v>0.2676073033685592</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5291879440051974</v>
+        <v>0.5291879440051978</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.477333721330285</v>
@@ -1625,7 +1625,7 @@
         <v>0.231716359236941</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4199366844104486</v>
+        <v>0.4199366844104482</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2124832806533511</v>
+        <v>0.2034626025494561</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09515376183902088</v>
+        <v>-0.1069628100938222</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04663436311801786</v>
+        <v>-0.03928383240104923</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1346708181380385</v>
+        <v>0.1415605058606426</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04045568399078332</v>
+        <v>0.001669818261825798</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2761000399487201</v>
+        <v>0.2880837998448437</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2477575285750943</v>
+        <v>0.243820131713942</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04179738524582795</v>
+        <v>0.03364340973328352</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2155213052866881</v>
+        <v>0.2214832660184391</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.229889945317459</v>
+        <v>1.121544366587288</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5566620406991268</v>
+        <v>0.6017650601530017</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6184268313685848</v>
+        <v>0.6332340241842437</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7343612616822035</v>
+        <v>0.7540316046217568</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5974755440327778</v>
+        <v>0.5696958290881661</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.811684191791479</v>
+        <v>0.8491343700758575</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7580628360590183</v>
+        <v>0.7290435152688129</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4766863514542343</v>
+        <v>0.4511849865399991</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6593249768549839</v>
+        <v>0.6798490499756523</v>
       </c>
     </row>
     <row r="34">
